--- a/src/main/resources/static/excel/receiptDetailOther.xlsx
+++ b/src/main/resources/static/excel/receiptDetailOther.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28000" windowHeight="11960"/>
+    <workbookView windowWidth="28000" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -55,43 +55,43 @@
     <t>项目负责人</t>
   </si>
   <si>
-    <t>HS184043</t>
-  </si>
-  <si>
-    <t>企业</t>
-  </si>
-  <si>
-    <t>3个月</t>
-  </si>
-  <si>
-    <t>05672454</t>
-  </si>
-  <si>
-    <t>宁波大禹水处理设备有限公司</t>
-  </si>
-  <si>
-    <t>环境-环境</t>
-  </si>
-  <si>
-    <t>杨正</t>
-  </si>
-  <si>
-    <t>HJ184747</t>
-  </si>
-  <si>
-    <t>05672455</t>
-  </si>
-  <si>
-    <t>宁波戴维医疗器械股份有限公司</t>
-  </si>
-  <si>
-    <t>HJ185019</t>
-  </si>
-  <si>
-    <t>05672456</t>
-  </si>
-  <si>
-    <t>宁波庄宏亿轴承有限公司</t>
+    <t>{{$fe:list t.taskId</t>
+  </si>
+  <si>
+    <t>t.contractNumber</t>
+  </si>
+  <si>
+    <t>t.invoiceDate</t>
+  </si>
+  <si>
+    <t>t.createLimitPart</t>
+  </si>
+  <si>
+    <t>t.creditLimit</t>
+  </si>
+  <si>
+    <t>t.invoiceNumber</t>
+  </si>
+  <si>
+    <t>t.invoiceOffice</t>
+  </si>
+  <si>
+    <t>t.departmentName</t>
+  </si>
+  <si>
+    <t>t.invoiceProject</t>
+  </si>
+  <si>
+    <t>t.contractAmount</t>
+  </si>
+  <si>
+    <t>t.invoiceAmount</t>
+  </si>
+  <si>
+    <t>t.noTaxAmount</t>
+  </si>
+  <si>
+    <t>t.contractUser}}</t>
   </si>
 </sst>
 </file>
@@ -99,12 +99,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -134,30 +134,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,100 +263,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +292,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,97 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,61 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -497,24 +497,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -543,6 +525,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -558,17 +555,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,11 +592,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,148 +603,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,16 +781,13 @@
     <xf numFmtId="43" fontId="1" fillId="2" borderId="1" xfId="31" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,7 +1112,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:M4"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3"/>
@@ -1161,134 +1158,76 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" ht="26" spans="1:13">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4">
-        <v>43467</v>
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>16</v>
+        <v>17</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="5">
-        <v>200</v>
-      </c>
-      <c r="K2" s="5">
-        <f>J2</f>
-        <v>200</v>
-      </c>
-      <c r="L2" s="5">
-        <f>K2/1.06</f>
-        <v>188.679245283019</v>
+        <v>21</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43467</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="5">
-        <v>2500</v>
-      </c>
-      <c r="K3" s="5">
-        <f>J3</f>
-        <v>2500</v>
-      </c>
-      <c r="L3" s="5">
-        <f>K3/1.06</f>
-        <v>2358.49056603774</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>19</v>
-      </c>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43467</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="5">
-        <v>1500</v>
-      </c>
-      <c r="K4" s="5">
-        <f>J4</f>
-        <v>1500</v>
-      </c>
-      <c r="L4" s="5">
-        <f>K4/1.06</f>
-        <v>1415.09433962264</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
